--- a/Code Lists/PEPPOL Code Lists - Processes v4.xlsx
+++ b/Code Lists/PEPPOL Code Lists - Processes v4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12300"/>
+    <workbookView xWindow="120" yWindow="110" windowWidth="18920" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Process" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Process!$A$1:$G$14</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>Profile code</t>
   </si>
@@ -215,13 +215,61 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:catalogue_only:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:order_only:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:invoice_response:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:punch_out:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:ordering:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:despatch_advice:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:order_agreement:3</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol.eu:poacc:bis:mlr:3</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Catalogue only 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Order only 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Invoice Response 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Punch Out 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Ordering 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Despatch Advice 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Order Agreement 3.0</t>
+  </si>
+  <si>
+    <t>PEPPOL BIS Message Level Response 3.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,7 +381,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -402,11 +450,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -731,27 +774,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="8"/>
+    <col min="6" max="6" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -798,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -818,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -842,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -862,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -886,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -906,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -929,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -949,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -969,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -993,7 +1036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -1013,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1033,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -1053,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -1073,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
@@ -1093,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
@@ -1113,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
@@ -1130,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>64</v>
       </c>
@@ -1164,6 +1207,142 @@
         <v>65</v>
       </c>
       <c r="F20" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="15" t="b">
         <v>0</v>
       </c>
     </row>
